--- a/words_CZ/9.xlsx
+++ b/words_CZ/9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PY_progs\Learn_CZ\words_CZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16D4ACD-645D-4965-AE37-C3021FC2E70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C93C37-1006-4E9F-B0B3-017B202D672E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="664">
-  <si>
-    <t>břicho</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="646">
   <si>
     <t>být na řadě</t>
   </si>
@@ -36,9 +33,6 @@
     <t>častěji</t>
   </si>
   <si>
-    <t>čekárna</t>
-  </si>
-  <si>
     <t>denně</t>
   </si>
   <si>
@@ -48,105 +42,27 @@
     <t>hezky</t>
   </si>
   <si>
-    <t>hlava</t>
-  </si>
-  <si>
-    <t>horečka</t>
-  </si>
-  <si>
     <t>horko</t>
   </si>
   <si>
     <t>horší</t>
   </si>
   <si>
-    <t>hrozný</t>
-  </si>
-  <si>
-    <t>chřipka</t>
-  </si>
-  <si>
     <t>jak často</t>
   </si>
   <si>
     <t>jak dlouho</t>
   </si>
   <si>
-    <t>jaro</t>
-  </si>
-  <si>
-    <t>kartička pojišťovny</t>
-  </si>
-  <si>
-    <t>kašel</t>
-  </si>
-  <si>
-    <t>kontrola</t>
-  </si>
-  <si>
-    <t>krk</t>
-  </si>
-  <si>
-    <t>lék</t>
-  </si>
-  <si>
-    <t>lepší</t>
-  </si>
-  <si>
-    <t>léto</t>
-  </si>
-  <si>
-    <t>menší</t>
-  </si>
-  <si>
-    <t>nebezpečný</t>
-  </si>
-  <si>
-    <t>nejhorší</t>
-  </si>
-  <si>
-    <t>nejlepší</t>
-  </si>
-  <si>
-    <t>nejmenší</t>
-  </si>
-  <si>
-    <t>největší</t>
-  </si>
-  <si>
-    <t>nemocný</t>
-  </si>
-  <si>
     <t>než</t>
   </si>
   <si>
-    <t>noha</t>
-  </si>
-  <si>
-    <t>očkování</t>
-  </si>
-  <si>
-    <t>ordinační hodiny</t>
-  </si>
-  <si>
     <t>ošklivo</t>
   </si>
   <si>
     <t>plno</t>
   </si>
   <si>
-    <t>podzim</t>
-  </si>
-  <si>
-    <t>poliklinika</t>
-  </si>
-  <si>
-    <t>prášek</t>
-  </si>
-  <si>
-    <t>alergie na</t>
-  </si>
-  <si>
     <t>алергія на</t>
   </si>
   <si>
@@ -156,120 +72,30 @@
     <t>allergy to</t>
   </si>
   <si>
-    <t>běžet</t>
-  </si>
-  <si>
-    <t>бігти, бігти (про час) (недок.)</t>
-  </si>
-  <si>
-    <t>бежать (недок.)</t>
-  </si>
-  <si>
-    <t>to run (impf.)</t>
-  </si>
-  <si>
-    <t>běhat</t>
-  </si>
-  <si>
-    <t>бігати (недок.)</t>
-  </si>
-  <si>
-    <t>бегать (недок.)</t>
-  </si>
-  <si>
-    <t>to run (repeatedly) (impf.)</t>
-  </si>
-  <si>
-    <t>blahopřát k</t>
-  </si>
-  <si>
-    <t>вітати, поздоровляти з (недок.)</t>
-  </si>
-  <si>
-    <t>поздравлять с (недок.)</t>
-  </si>
-  <si>
-    <t>to congratulate on (impf.)</t>
-  </si>
-  <si>
-    <t>poblahopřát k</t>
-  </si>
-  <si>
-    <t>привітати, поздоровити з (док.)</t>
-  </si>
-  <si>
-    <t>поздравить с (док.)</t>
-  </si>
-  <si>
-    <t>to congratulate on (pf.)</t>
-  </si>
-  <si>
     <t>bolet</t>
   </si>
   <si>
-    <t>боліти, завдавати болю</t>
-  </si>
-  <si>
-    <t>болеть, причинять боль</t>
-  </si>
-  <si>
     <t>to hurt, to ache</t>
   </si>
   <si>
-    <t>brýle</t>
-  </si>
-  <si>
     <t>окуляри</t>
   </si>
   <si>
     <t>очки</t>
   </si>
   <si>
-    <t>glasses, spectacles</t>
-  </si>
-  <si>
     <t>Brzo se uzdrav.</t>
   </si>
   <si>
-    <t>Швидко одужуй.</t>
-  </si>
-  <si>
-    <t>Скоро выздоравливай.</t>
-  </si>
-  <si>
     <t>Get well soon. (informal)</t>
   </si>
   <si>
     <t>Brzo se uzdravte.</t>
   </si>
   <si>
-    <t>Швидко одужуйте.</t>
-  </si>
-  <si>
-    <t>Скоро выздоравливайте.</t>
-  </si>
-  <si>
-    <t>Get well soon. (formal/plural)</t>
-  </si>
-  <si>
-    <t>живіт, черево</t>
-  </si>
-  <si>
     <t>живот</t>
   </si>
   <si>
-    <t>belly, abdomen</t>
-  </si>
-  <si>
-    <t>бути на черзі, настала черга</t>
-  </si>
-  <si>
-    <t>быть на очереди, наступила очередь</t>
-  </si>
-  <si>
-    <t>to be next in line, to be one's turn</t>
-  </si>
-  <si>
     <t>cítit se</t>
   </si>
   <si>
@@ -279,66 +105,15 @@
     <t>чувствовать себя</t>
   </si>
   <si>
-    <t>to feel (well/badly)</t>
-  </si>
-  <si>
     <t>частіше</t>
   </si>
   <si>
     <t>чаще</t>
   </si>
   <si>
-    <t>more often, frequently</t>
-  </si>
-  <si>
-    <t>приймальня, кімната очікування</t>
-  </si>
-  <si>
-    <t>приемная, комната ожидания</t>
-  </si>
-  <si>
     <t>waiting room</t>
   </si>
   <si>
-    <t>dál</t>
-  </si>
-  <si>
-    <t>далі, подалі</t>
-  </si>
-  <si>
-    <t>дальше, подальше</t>
-  </si>
-  <si>
-    <t>further, on</t>
-  </si>
-  <si>
-    <t>dále</t>
-  </si>
-  <si>
-    <t>щоденно, щодня</t>
-  </si>
-  <si>
-    <t>ежедневно, каждый день</t>
-  </si>
-  <si>
-    <t>daily, every day</t>
-  </si>
-  <si>
-    <t>dřív</t>
-  </si>
-  <si>
-    <t>раніше, швидше</t>
-  </si>
-  <si>
-    <t>раньше, скорее</t>
-  </si>
-  <si>
-    <t>earlier, sooner</t>
-  </si>
-  <si>
-    <t>dříve</t>
-  </si>
-  <si>
     <t>дихати</t>
   </si>
   <si>
@@ -348,12 +123,6 @@
     <t>to breathe</t>
   </si>
   <si>
-    <t>гарно, красиво, мило</t>
-  </si>
-  <si>
-    <t>красиво, мило, приятно</t>
-  </si>
-  <si>
     <t>nicely, beautifully, pleasantly</t>
   </si>
   <si>
@@ -366,96 +135,21 @@
     <t>hodit se</t>
   </si>
   <si>
-    <t>годитися, пасувати, підходити</t>
-  </si>
-  <si>
-    <t>годиться, подходить</t>
-  </si>
-  <si>
-    <t>to be suitable, to be useful, to fit</t>
-  </si>
-  <si>
-    <t>гарячка, лихоманка, температура</t>
-  </si>
-  <si>
-    <t>лихорадка, температура</t>
-  </si>
-  <si>
     <t>fever</t>
   </si>
   <si>
-    <t>спека, жара, гаряче</t>
-  </si>
-  <si>
-    <t>жара, жарко, горячо</t>
-  </si>
-  <si>
-    <t>heat, hot (weather/feeling)</t>
-  </si>
-  <si>
-    <t>гірший, хутший</t>
-  </si>
-  <si>
-    <t>худший, хуже</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>жахливий, страшний, моторошний</t>
-  </si>
-  <si>
-    <t>ужасный, страшный, жуткий</t>
-  </si>
-  <si>
-    <t>terrible, awful, horrible</t>
-  </si>
-  <si>
-    <t>hrozná</t>
-  </si>
-  <si>
-    <t>жахлива, страшна, моторошна</t>
-  </si>
-  <si>
-    <t>ужасная, страшная, жуткая</t>
-  </si>
-  <si>
-    <t>hrozné</t>
-  </si>
-  <si>
-    <t>жахливе, страшне, моторошне</t>
-  </si>
-  <si>
-    <t>ужасное, страшное, жуткое</t>
-  </si>
-  <si>
-    <t>hůř</t>
-  </si>
-  <si>
     <t>гірше</t>
   </si>
   <si>
     <t>хуже</t>
   </si>
   <si>
-    <t>worse (adv.)</t>
-  </si>
-  <si>
-    <t>hůře</t>
-  </si>
-  <si>
-    <t>chirurgie</t>
-  </si>
-  <si>
     <t>хірургія</t>
   </si>
   <si>
     <t>хирургия</t>
   </si>
   <si>
-    <t>surgery</t>
-  </si>
-  <si>
     <t>грип</t>
   </si>
   <si>
@@ -468,27 +162,12 @@
     <t>chybět</t>
   </si>
   <si>
-    <t>бракувати, бути відсутнім, сумувати</t>
-  </si>
-  <si>
-    <t>не хватать, отсутствовать, скучать</t>
-  </si>
-  <si>
-    <t>to miss, to be absent, to lack</t>
-  </si>
-  <si>
-    <t>injekce</t>
-  </si>
-  <si>
     <t>ін'єкція, укол</t>
   </si>
   <si>
     <t>инъекция, укол</t>
   </si>
   <si>
-    <t>injection</t>
-  </si>
-  <si>
     <t>як часто</t>
   </si>
   <si>
@@ -513,51 +192,15 @@
     <t>spring</t>
   </si>
   <si>
-    <t>картка медичного страхування</t>
-  </si>
-  <si>
-    <t>карточка страховой компании</t>
-  </si>
-  <si>
-    <t>insurance card (health)</t>
-  </si>
-  <si>
     <t>кашель</t>
   </si>
   <si>
     <t>cough</t>
   </si>
   <si>
-    <t>контроль, перевірка, огляд</t>
-  </si>
-  <si>
-    <t>контроль, проверка, осмотр</t>
-  </si>
-  <si>
-    <t>control, check-up, inspection</t>
-  </si>
-  <si>
-    <t>шия, горло</t>
-  </si>
-  <si>
-    <t>шея, горло</t>
-  </si>
-  <si>
-    <t>neck, throat</t>
-  </si>
-  <si>
-    <t>ліки, лікувальний засіб</t>
-  </si>
-  <si>
-    <t>лекарство, лечебное средство</t>
-  </si>
-  <si>
     <t>medicine, drug</t>
   </si>
   <si>
-    <t>lékař</t>
-  </si>
-  <si>
     <t>лікар</t>
   </si>
   <si>
@@ -567,84 +210,24 @@
     <t>doctor (male)</t>
   </si>
   <si>
-    <t>lékařka</t>
-  </si>
-  <si>
     <t>лікарка</t>
   </si>
   <si>
     <t>doctor (female)</t>
   </si>
   <si>
-    <t>lépe</t>
-  </si>
-  <si>
     <t>краще</t>
   </si>
   <si>
     <t>лучше</t>
   </si>
   <si>
-    <t>better (adv.)</t>
-  </si>
-  <si>
-    <t>líp</t>
-  </si>
-  <si>
-    <t>краще (розмовне)</t>
-  </si>
-  <si>
-    <t>лучше (разг.)</t>
-  </si>
-  <si>
-    <t>better (adv., colloquial)</t>
-  </si>
-  <si>
     <t>кращий, ліпший</t>
   </si>
   <si>
-    <t>лучший, более хороший</t>
-  </si>
-  <si>
-    <t>better (adj.)</t>
-  </si>
-  <si>
     <t>být … let</t>
   </si>
   <si>
-    <t>мати … років</t>
-  </si>
-  <si>
-    <t>быть … лет</t>
-  </si>
-  <si>
-    <t>to be … years old</t>
-  </si>
-  <si>
-    <t>letět</t>
-  </si>
-  <si>
-    <t>летіти (недок., одноразово)</t>
-  </si>
-  <si>
-    <t>лететь (недок., однократно)</t>
-  </si>
-  <si>
-    <t>to fly (impf., once/in progress)</t>
-  </si>
-  <si>
-    <t>létat</t>
-  </si>
-  <si>
-    <t>літати (недок., багаторазово)</t>
-  </si>
-  <si>
-    <t>летать (недок., многократно)</t>
-  </si>
-  <si>
-    <t>to fly (impf., repeatedly)</t>
-  </si>
-  <si>
     <t>літо</t>
   </si>
   <si>
@@ -663,117 +246,51 @@
     <t>нравиться</t>
   </si>
   <si>
-    <t>to like, to appeal to</t>
-  </si>
-  <si>
-    <t>méně</t>
-  </si>
-  <si>
     <t>менше</t>
   </si>
   <si>
-    <t>меньше</t>
-  </si>
-  <si>
     <t>less, fewer</t>
   </si>
   <si>
-    <t>míň</t>
-  </si>
-  <si>
-    <t>менше (розмовне)</t>
-  </si>
-  <si>
-    <t>меньше (разг.)</t>
-  </si>
-  <si>
-    <t>less, fewer (colloquial)</t>
-  </si>
-  <si>
-    <t>менший</t>
-  </si>
-  <si>
     <t>меньший, меньше</t>
   </si>
   <si>
-    <t>smaller, less</t>
-  </si>
-  <si>
     <t>небезпечний</t>
   </si>
   <si>
     <t>опасный</t>
   </si>
   <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>nebezpečná</t>
-  </si>
-  <si>
     <t>небезпечна</t>
   </si>
   <si>
     <t>опасная</t>
   </si>
   <si>
-    <t>nebezpečné</t>
-  </si>
-  <si>
     <t>небезпечне</t>
   </si>
   <si>
     <t>опасное</t>
   </si>
   <si>
-    <t>найгірший</t>
-  </si>
-  <si>
-    <t>наихудший, самый плохой</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>найкращий</t>
-  </si>
-  <si>
-    <t>наилучший, самый лучший</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>найменший</t>
   </si>
   <si>
     <t>наименьший, самый маленький</t>
   </si>
   <si>
-    <t>smallest, least</t>
-  </si>
-  <si>
     <t>найбільший</t>
   </si>
   <si>
     <t>наибольший, самый большой</t>
   </si>
   <si>
-    <t>biggest, largest</t>
-  </si>
-  <si>
-    <t>nemoc</t>
-  </si>
-  <si>
     <t>хвороба, недуга</t>
   </si>
   <si>
     <t>болезнь, недуг</t>
   </si>
   <si>
-    <t>illness, sickness, disease</t>
-  </si>
-  <si>
     <t>хворий</t>
   </si>
   <si>
@@ -783,9 +300,6 @@
     <t>sick, ill (male)</t>
   </si>
   <si>
-    <t>nemocná</t>
-  </si>
-  <si>
     <t>хвора</t>
   </si>
   <si>
@@ -795,93 +309,24 @@
     <t>sick, ill (female)</t>
   </si>
   <si>
-    <t>nemocné</t>
-  </si>
-  <si>
     <t>хворе</t>
   </si>
   <si>
     <t>больное</t>
   </si>
   <si>
-    <t>sick, ill (neut.)</t>
-  </si>
-  <si>
-    <t>nést</t>
-  </si>
-  <si>
-    <t>нести (недок., одноразово)</t>
-  </si>
-  <si>
-    <t>нести (недок., однократно)</t>
-  </si>
-  <si>
-    <t>to carry (impf., once/in progress)</t>
-  </si>
-  <si>
-    <t>nosit</t>
-  </si>
-  <si>
-    <t>носити (недок., багаторазово)</t>
-  </si>
-  <si>
-    <t>носить (недок., многократно)</t>
-  </si>
-  <si>
-    <t>to carry, to wear (impf., repeatedly)</t>
-  </si>
-  <si>
-    <t>ніж, як</t>
-  </si>
-  <si>
-    <t>чем</t>
-  </si>
-  <si>
-    <t>than, as</t>
-  </si>
-  <si>
     <t>нога</t>
   </si>
   <si>
     <t>leg, foot</t>
   </si>
   <si>
-    <t>roční období</t>
-  </si>
-  <si>
-    <t>пора року</t>
-  </si>
-  <si>
-    <t>время года</t>
-  </si>
-  <si>
-    <t>season (of the year)</t>
-  </si>
-  <si>
     <t>objednat se</t>
   </si>
   <si>
-    <t>записатися, замовити (себе) (док.)</t>
-  </si>
-  <si>
-    <t>записаться, заказать (себя) (док.)</t>
-  </si>
-  <si>
-    <t>to make an appointment, to book (pf.)</t>
-  </si>
-  <si>
-    <t>щеплення, вакцинація</t>
-  </si>
-  <si>
     <t>прививка, вакцинация</t>
   </si>
   <si>
-    <t>vaccination, inoculation</t>
-  </si>
-  <si>
-    <t>oční lékař</t>
-  </si>
-  <si>
     <t>окуліст, очний лікар</t>
   </si>
   <si>
@@ -891,198 +336,27 @@
     <t>eye doctor, ophthalmologist (male)</t>
   </si>
   <si>
-    <t>oční lékařka</t>
-  </si>
-  <si>
     <t>окуліст, очна лікарка</t>
   </si>
   <si>
     <t>eye doctor, ophthalmologist (female)</t>
   </si>
   <si>
-    <t>odcházet</t>
-  </si>
-  <si>
-    <t>відходити, йти (недок.)</t>
-  </si>
-  <si>
-    <t>уходить, покидать (недок.)</t>
-  </si>
-  <si>
-    <t>to leave, to go away (impf.)</t>
-  </si>
-  <si>
-    <t>odejít</t>
-  </si>
-  <si>
-    <t>відійти, піти (док.)</t>
-  </si>
-  <si>
-    <t>уйти, покинуть (док.)</t>
-  </si>
-  <si>
-    <t>to leave, to go away (pf.)</t>
-  </si>
-  <si>
-    <t>odjíždět</t>
-  </si>
-  <si>
-    <t>від'їжджати, їхати (недок.)</t>
-  </si>
-  <si>
-    <t>отъезжать, уезжать (недок.)</t>
-  </si>
-  <si>
-    <t>to leave, to depart (by vehicle) (impf.)</t>
-  </si>
-  <si>
-    <t>odjet</t>
-  </si>
-  <si>
-    <t>від'їхати, поїхати (док.)</t>
-  </si>
-  <si>
-    <t>отъехать, уехать (док.)</t>
-  </si>
-  <si>
-    <t>to leave, to depart (by vehicle) (pf.)</t>
-  </si>
-  <si>
-    <t>odlétat</t>
-  </si>
-  <si>
-    <t>відлітати (недок.)</t>
-  </si>
-  <si>
-    <t>улетать (недок.)</t>
-  </si>
-  <si>
-    <t>to fly away, to depart (by air) (impf.)</t>
-  </si>
-  <si>
-    <t>odletět</t>
-  </si>
-  <si>
-    <t>відлетіти (док.)</t>
-  </si>
-  <si>
-    <t>улететь (док.)</t>
-  </si>
-  <si>
-    <t>to fly away, to depart (by air) (pf.)</t>
-  </si>
-  <si>
-    <t>odnášet</t>
-  </si>
-  <si>
-    <t>відносити, забирати (недок.)</t>
-  </si>
-  <si>
-    <t>относить, уносить (недок.)</t>
-  </si>
-  <si>
-    <t>to carry away, to take away (impf.)</t>
-  </si>
-  <si>
-    <t>odnést</t>
-  </si>
-  <si>
-    <t>віднести, забрати (док.)</t>
-  </si>
-  <si>
-    <t>отнести, унести (док.)</t>
-  </si>
-  <si>
-    <t>to carry away, to take away (pf.)</t>
-  </si>
-  <si>
-    <t>ordinace</t>
-  </si>
-  <si>
-    <t>кабінет лікаря, приймальня</t>
-  </si>
-  <si>
-    <t>кабинет врача, приемная</t>
-  </si>
-  <si>
-    <t>doctor's office, consulting room</t>
-  </si>
-  <si>
-    <t>години прийому (лікаря)</t>
-  </si>
-  <si>
-    <t>часы приема (врача)</t>
-  </si>
-  <si>
     <t>office hours, surgery hours</t>
   </si>
   <si>
-    <t>огидно, негарно (про погоду)</t>
-  </si>
-  <si>
-    <t>отвратительно, некрасиво, пасмурно</t>
-  </si>
-  <si>
-    <t>nasty, ugly, bad weather</t>
-  </si>
-  <si>
-    <t>pacient</t>
-  </si>
-  <si>
-    <t>пацієнт, хворий</t>
-  </si>
-  <si>
-    <t>пациент, больной</t>
-  </si>
-  <si>
     <t>patient (male)</t>
   </si>
   <si>
-    <t>pacientka</t>
-  </si>
-  <si>
-    <t>пацієнтка, хвора</t>
-  </si>
-  <si>
-    <t>пациентка, больная</t>
-  </si>
-  <si>
     <t>patient (female)</t>
   </si>
   <si>
-    <t>padat</t>
-  </si>
-  <si>
-    <t>падати (недок.)</t>
-  </si>
-  <si>
-    <t>падать (недок.)</t>
-  </si>
-  <si>
-    <t>to fall (impf.)</t>
-  </si>
-  <si>
-    <t>spadnout</t>
-  </si>
-  <si>
-    <t>впасти (док.)</t>
-  </si>
-  <si>
-    <t>упасть (док.)</t>
-  </si>
-  <si>
-    <t>to fall down (pf.)</t>
-  </si>
-  <si>
     <t>повно, багато</t>
   </si>
   <si>
     <t>полно, много</t>
   </si>
   <si>
-    <t>full, a lot of</t>
-  </si>
-  <si>
     <t>осінь</t>
   </si>
   <si>
@@ -1092,516 +366,42 @@
     <t>autumn, fall</t>
   </si>
   <si>
-    <t>pohotovost</t>
-  </si>
-  <si>
-    <t>швидка допомога, чергова служба</t>
-  </si>
-  <si>
-    <t>скорая помощь, дежурная служба</t>
-  </si>
-  <si>
-    <t>emergency, on-call duty</t>
-  </si>
-  <si>
     <t>поліклініка</t>
   </si>
   <si>
     <t>поликлиника</t>
   </si>
   <si>
-    <t>polyclinic, clinic</t>
-  </si>
-  <si>
-    <t>popřát</t>
-  </si>
-  <si>
-    <t>побажати (док.)</t>
-  </si>
-  <si>
-    <t>пожелать (док.)</t>
-  </si>
-  <si>
-    <t>to wish (pf.)</t>
-  </si>
-  <si>
-    <t>přát</t>
-  </si>
-  <si>
-    <t>бажати (недок.)</t>
-  </si>
-  <si>
-    <t>желать (недок.)</t>
-  </si>
-  <si>
-    <t>to wish (impf.)</t>
-  </si>
-  <si>
-    <t>poradit</t>
-  </si>
-  <si>
-    <t>порадити (док.)</t>
-  </si>
-  <si>
-    <t>посоветовать, подсказать (док.)</t>
-  </si>
-  <si>
-    <t>to advise, to give advice (pf.)</t>
-  </si>
-  <si>
-    <t>radit</t>
-  </si>
-  <si>
-    <t>радити (недок.)</t>
-  </si>
-  <si>
-    <t>советовать, подсказывать (недок.)</t>
-  </si>
-  <si>
-    <t>to advise, to give advice (impf.)</t>
-  </si>
-  <si>
-    <t>potíže</t>
-  </si>
-  <si>
-    <t>труднощі, проблеми, нездужання</t>
-  </si>
-  <si>
-    <t>трудности, проблемы, недомогания</t>
-  </si>
-  <si>
-    <t>troubles, difficulties, complaints</t>
-  </si>
-  <si>
-    <t>používat</t>
-  </si>
-  <si>
-    <t>використовувати, застосовувати (недок.)</t>
-  </si>
-  <si>
-    <t>использовать, применять (недок.)</t>
-  </si>
-  <si>
-    <t>to use (impf.)</t>
-  </si>
-  <si>
-    <t>použít</t>
-  </si>
-  <si>
-    <t>використати, застосувати (док.)</t>
-  </si>
-  <si>
-    <t>использовать, применить (док.)</t>
-  </si>
-  <si>
-    <t>to use (pf.)</t>
-  </si>
-  <si>
-    <t>порошок, таблетка</t>
-  </si>
-  <si>
     <t>powder, pill, tablet</t>
   </si>
   <si>
-    <t>přicházet</t>
-  </si>
-  <si>
-    <t>приходити, надходити (недок.)</t>
-  </si>
-  <si>
-    <t>приходить, наступать (недок.)</t>
-  </si>
-  <si>
-    <t>to come, to arrive (on foot) (impf.)</t>
-  </si>
-  <si>
-    <t>přijít</t>
-  </si>
-  <si>
-    <t>прийти, надійти (док.)</t>
-  </si>
-  <si>
-    <t>прийти, наступить (док.)</t>
-  </si>
-  <si>
-    <t>to come, to arrive (on foot) (pf.)</t>
-  </si>
-  <si>
-    <t>přijíždět</t>
-  </si>
-  <si>
-    <t>приїжджати, прибувати (недок.)</t>
-  </si>
-  <si>
-    <t>приезжать, прибывать (недок.)</t>
-  </si>
-  <si>
-    <t>to arrive (by vehicle) (impf.)</t>
-  </si>
-  <si>
-    <t>přijet</t>
-  </si>
-  <si>
-    <t>приїхати, прибути (док.)</t>
-  </si>
-  <si>
-    <t>приехать, прибыть (док.)</t>
-  </si>
-  <si>
-    <t>to arrive (by vehicle) (pf.)</t>
-  </si>
-  <si>
-    <t>přilétat</t>
-  </si>
-  <si>
-    <t>прилітати (недок.)</t>
-  </si>
-  <si>
-    <t>прилетать (недок.)</t>
-  </si>
-  <si>
-    <t>to arrive (by air) (impf.)</t>
-  </si>
-  <si>
-    <t>přiletět</t>
-  </si>
-  <si>
-    <t>прилетіти (док.)</t>
-  </si>
-  <si>
-    <t>прилететь (док.)</t>
-  </si>
-  <si>
-    <t>to arrive (by air) (pf.)</t>
-  </si>
-  <si>
-    <t>přinášet</t>
-  </si>
-  <si>
-    <t>приносити, доставляти (недок.)</t>
-  </si>
-  <si>
-    <t>приносить, доставлять (недок.)</t>
-  </si>
-  <si>
-    <t>to bring (impf.)</t>
-  </si>
-  <si>
-    <t>přinést</t>
-  </si>
-  <si>
-    <t>принести, доставити (док.)</t>
-  </si>
-  <si>
-    <t>принести, доставить (док.)</t>
-  </si>
-  <si>
-    <t>to bring (pf.)</t>
-  </si>
-  <si>
-    <t>půjčovat</t>
-  </si>
-  <si>
-    <t>позичати, давати в борг (недок.)</t>
-  </si>
-  <si>
-    <t>одалживать, давать в долг (недок.)</t>
-  </si>
-  <si>
-    <t>to lend, to borrow (impf.)</t>
-  </si>
-  <si>
-    <t>půjčit</t>
-  </si>
-  <si>
-    <t>позичити, дати в борг (док.)</t>
-  </si>
-  <si>
-    <t>одолжить, дать в долг (док.)</t>
-  </si>
-  <si>
-    <t>to lend, to borrow (pf.)</t>
-  </si>
-  <si>
-    <t>pusa</t>
-  </si>
-  <si>
-    <t>recept</t>
-  </si>
-  <si>
-    <t>rýma</t>
-  </si>
-  <si>
-    <t>sanitka</t>
-  </si>
-  <si>
-    <t>silný</t>
-  </si>
-  <si>
-    <t>slabý</t>
-  </si>
-  <si>
     <t>smutno</t>
   </si>
   <si>
-    <t>stupeň (Celsia)</t>
-  </si>
-  <si>
-    <t>tableta</t>
-  </si>
-  <si>
-    <t>těhotná</t>
-  </si>
-  <si>
-    <t>tělo</t>
-  </si>
-  <si>
     <t>teplo</t>
   </si>
   <si>
-    <t>teplota</t>
-  </si>
-  <si>
-    <t>termín</t>
-  </si>
-  <si>
     <t>uzdravit se</t>
   </si>
   <si>
-    <t>větší</t>
-  </si>
-  <si>
-    <t>vitamín</t>
-  </si>
-  <si>
-    <t>zdravotní</t>
-  </si>
-  <si>
-    <t>(zdravotní) sestra</t>
-  </si>
-  <si>
-    <t>zdravý</t>
-  </si>
-  <si>
-    <t>zima</t>
-  </si>
-  <si>
-    <t>zlomený</t>
-  </si>
-  <si>
-    <t>zraněný</t>
-  </si>
-  <si>
-    <t>půjčovat si</t>
-  </si>
-  <si>
-    <t>позичати (в когось), брати в борг (недок.)</t>
-  </si>
-  <si>
-    <t>одалживать (у кого-то), брать в долг (недок.)</t>
-  </si>
-  <si>
-    <t>to borrow (impf.)</t>
-  </si>
-  <si>
-    <t>půjčit si</t>
-  </si>
-  <si>
-    <t>позичити (в когось), взяти в борг (док.)</t>
-  </si>
-  <si>
-    <t>одолжить (у кого-то), взять в долг (док.)</t>
-  </si>
-  <si>
-    <t>to borrow (pf.)</t>
-  </si>
-  <si>
-    <t>поцілунок, уста, рот</t>
-  </si>
-  <si>
-    <t>поцелуй, губы, рот</t>
-  </si>
-  <si>
-    <t>kiss, mouth, lips</t>
-  </si>
-  <si>
-    <t>raději</t>
-  </si>
-  <si>
-    <t>радше, краще, охочіше</t>
-  </si>
-  <si>
     <t>лучше, охотнее</t>
   </si>
   <si>
     <t>rather, preferably</t>
   </si>
   <si>
-    <t>radši</t>
-  </si>
-  <si>
-    <t>радше, краще, охочіше (розмовне)</t>
-  </si>
-  <si>
-    <t>лучше, охотнее (разг.)</t>
-  </si>
-  <si>
-    <t>rather, preferably (colloquial)</t>
-  </si>
-  <si>
-    <t>радити, давати пораду (недок.)</t>
-  </si>
-  <si>
-    <t>советовать, давать совет (недок.)</t>
-  </si>
-  <si>
-    <t>to advise, to counsel (impf.)</t>
-  </si>
-  <si>
-    <t>порадити, дати пораду (док.)</t>
-  </si>
-  <si>
-    <t>посоветовать, дать совет (док.)</t>
-  </si>
-  <si>
-    <t>to advise, to counsel (pf.)</t>
-  </si>
-  <si>
-    <t>рецепт (медичний, кулінарний)</t>
-  </si>
-  <si>
-    <t>рецепт (медицинский, кулинарный)</t>
-  </si>
-  <si>
-    <t>recipe, prescription</t>
-  </si>
-  <si>
     <t>время года, сезон</t>
   </si>
   <si>
-    <t>ruka</t>
-  </si>
-  <si>
-    <t>рука (кисть), рука (ціла)</t>
-  </si>
-  <si>
-    <t>рука (кисть), рука (целиком)</t>
-  </si>
-  <si>
-    <t>hand, arm</t>
-  </si>
-  <si>
-    <t>ruce</t>
-  </si>
-  <si>
-    <t>руки</t>
-  </si>
-  <si>
-    <t>hands, arms</t>
-  </si>
-  <si>
-    <t>нежить</t>
-  </si>
-  <si>
     <t>насморк</t>
   </si>
   <si>
-    <t>cold (runny nose)</t>
-  </si>
-  <si>
-    <t>швидка допомога, санітарна машина</t>
-  </si>
-  <si>
-    <t>скорая помощь, санитарная машина</t>
-  </si>
-  <si>
     <t>ambulance</t>
   </si>
   <si>
-    <t>сильний, міцний, товстий</t>
-  </si>
-  <si>
-    <t>сильный, крепкий, толстый</t>
-  </si>
-  <si>
-    <t>strong, powerful, thick</t>
-  </si>
-  <si>
-    <t>silná</t>
-  </si>
-  <si>
-    <t>сильна, міцна, товста</t>
-  </si>
-  <si>
-    <t>сильная, крепкая, толстая</t>
-  </si>
-  <si>
-    <t>silné</t>
-  </si>
-  <si>
-    <t>сильне, міцне, товсте</t>
-  </si>
-  <si>
-    <t>сильное, крепкое, толстое</t>
-  </si>
-  <si>
-    <t>situace</t>
-  </si>
-  <si>
-    <t>ситуація, становище</t>
-  </si>
-  <si>
-    <t>ситуация, положение</t>
-  </si>
-  <si>
     <t>situation</t>
   </si>
   <si>
-    <t>слабкий, тонкий</t>
-  </si>
-  <si>
-    <t>слабый, тонкий</t>
-  </si>
-  <si>
-    <t>weak, faint, thin</t>
-  </si>
-  <si>
-    <t>slabá</t>
-  </si>
-  <si>
-    <t>слабка, тонка</t>
-  </si>
-  <si>
-    <t>слабая, тонкая</t>
-  </si>
-  <si>
-    <t>slabé</t>
-  </si>
-  <si>
-    <t>слабке, тонке</t>
-  </si>
-  <si>
-    <t>слабое, тонкое</t>
-  </si>
-  <si>
-    <t>сумно, невесело</t>
-  </si>
-  <si>
-    <t>грустно, невесело</t>
-  </si>
-  <si>
-    <t>sad (adv.), gloomily</t>
-  </si>
-  <si>
-    <t>впасти, звалитися (док.)</t>
-  </si>
-  <si>
-    <t>упасть, свалиться (док.)</t>
-  </si>
-  <si>
-    <t>srdce</t>
-  </si>
-  <si>
     <t>серце</t>
   </si>
   <si>
@@ -1611,15 +411,6 @@
     <t>heart</t>
   </si>
   <si>
-    <t>градус (Цельсія), ступінь</t>
-  </si>
-  <si>
-    <t>градус (Цельсия), степень</t>
-  </si>
-  <si>
-    <t>degree (Celsius), grade</t>
-  </si>
-  <si>
     <t>таблетка</t>
   </si>
   <si>
@@ -1644,132 +435,18 @@
     <t>body</t>
   </si>
   <si>
-    <t>тепло, жарко</t>
-  </si>
-  <si>
-    <t>warmth, hot (feeling)</t>
-  </si>
-  <si>
     <t>температура</t>
   </si>
   <si>
     <t>temperature</t>
   </si>
   <si>
-    <t>термін, дата, кінцевий термін</t>
-  </si>
-  <si>
-    <t>срок, дата, конечный срок</t>
-  </si>
-  <si>
-    <t>deadline, date, appointment</t>
-  </si>
-  <si>
-    <t>ukazovat</t>
-  </si>
-  <si>
-    <t>показувати, демонструвати (недок.)</t>
-  </si>
-  <si>
-    <t>показывать, демонстрировать (недок.)</t>
-  </si>
-  <si>
-    <t>to show, to point out (impf.)</t>
-  </si>
-  <si>
-    <t>ukázat</t>
-  </si>
-  <si>
-    <t>показати, продемонструвати (док.)</t>
-  </si>
-  <si>
-    <t>показать, продемонстрировать (док.)</t>
-  </si>
-  <si>
-    <t>to show, to point out (pf.)</t>
-  </si>
-  <si>
-    <t>одужати, вилікуватися (док.)</t>
-  </si>
-  <si>
-    <t>выздороветь, исцелиться (док.)</t>
-  </si>
-  <si>
-    <t>to recover, to get well (pf.)</t>
-  </si>
-  <si>
     <t>vadit</t>
   </si>
   <si>
-    <t>заважати, шкодити, не подобатися</t>
-  </si>
-  <si>
-    <t>мешать, вредить, не нравиться</t>
-  </si>
-  <si>
-    <t>to bother, to mind, to matter</t>
-  </si>
-  <si>
-    <t>vést</t>
-  </si>
-  <si>
-    <t>вести, керувати (недок., одноразово)</t>
-  </si>
-  <si>
-    <t>вести, руководить (недок., однократно)</t>
-  </si>
-  <si>
-    <t>to lead, to guide (impf., once/in progress)</t>
-  </si>
-  <si>
-    <t>vodit</t>
-  </si>
-  <si>
-    <t>водити (недок., багаторазово)</t>
-  </si>
-  <si>
-    <t>водить (недок., многократно)</t>
-  </si>
-  <si>
-    <t>to lead, to take (repeatedly) (impf.)</t>
-  </si>
-  <si>
-    <t>більший</t>
-  </si>
-  <si>
-    <t>больший, крупнее</t>
-  </si>
-  <si>
     <t>bigger, larger</t>
   </si>
   <si>
-    <t>vézt</t>
-  </si>
-  <si>
-    <t>везти, транспортувати (недок., одноразово)</t>
-  </si>
-  <si>
-    <t>везти, транспортировать (недок., однократно)</t>
-  </si>
-  <si>
-    <t>to carry, to convey (impf., once/in progress)</t>
-  </si>
-  <si>
-    <t>vozit</t>
-  </si>
-  <si>
-    <t>возити, транспортувати (недок., багаторазово)</t>
-  </si>
-  <si>
-    <t>возить, транспортировать (недок., многократно)</t>
-  </si>
-  <si>
-    <t>to carry, to convey (repeatedly) (impf.)</t>
-  </si>
-  <si>
-    <t>více</t>
-  </si>
-  <si>
     <t>більше</t>
   </si>
   <si>
@@ -1779,18 +456,6 @@
     <t>more</t>
   </si>
   <si>
-    <t>víc</t>
-  </si>
-  <si>
-    <t>більше (розмовне)</t>
-  </si>
-  <si>
-    <t>больше (разг.)</t>
-  </si>
-  <si>
-    <t>more (colloquial)</t>
-  </si>
-  <si>
     <t>вітамін</t>
   </si>
   <si>
@@ -1800,168 +465,30 @@
     <t>vitamin</t>
   </si>
   <si>
-    <t>volat</t>
-  </si>
-  <si>
-    <t>кликати, дзвонити, викликати (недок.)</t>
-  </si>
-  <si>
-    <t>звать, звонить, вызывать (недок.)</t>
-  </si>
-  <si>
-    <t>to call (impf.)</t>
-  </si>
-  <si>
-    <t>zavolat</t>
-  </si>
-  <si>
-    <t>покликати, подзвонити, викликати (док.)</t>
-  </si>
-  <si>
-    <t>позвать, позвонить, вызвать (док.)</t>
-  </si>
-  <si>
-    <t>to call (pf.)</t>
-  </si>
-  <si>
     <t>vyhovovat</t>
   </si>
   <si>
-    <t>відповідати, підходити, влаштовувати</t>
-  </si>
-  <si>
-    <t>соответствовать, подходить, устраивать</t>
-  </si>
-  <si>
-    <t>to suit, to fit, to comply (impf.)</t>
-  </si>
-  <si>
     <t>vypadat</t>
   </si>
   <si>
-    <t>виглядати (мати вигляд)</t>
-  </si>
-  <si>
     <t>выглядеть</t>
   </si>
   <si>
-    <t>to look, to appear (to have an appearance)</t>
-  </si>
-  <si>
-    <t>vysvětlovat</t>
-  </si>
-  <si>
-    <t>пояснювати, роз'яснювати (недок.)</t>
-  </si>
-  <si>
-    <t>объяснять, разъяснять (недок.)</t>
-  </si>
-  <si>
-    <t>to explain, to clarify (impf.)</t>
-  </si>
-  <si>
-    <t>vysvětlit</t>
-  </si>
-  <si>
-    <t>пояснити, роз'яснити (док.)</t>
-  </si>
-  <si>
-    <t>объяснить, разъяснить (док.)</t>
-  </si>
-  <si>
-    <t>to explain, to clarify (pf.)</t>
-  </si>
-  <si>
-    <t>медичний, оздоровчий, здоров'я (прикм.)</t>
-  </si>
-  <si>
-    <t>медицинский, оздоровительный, здоровья (прил.)</t>
-  </si>
-  <si>
-    <t>health (adj.), medical, sanitary</t>
-  </si>
-  <si>
-    <t>(медична) сестра, медсестра</t>
-  </si>
-  <si>
-    <t>(медицинская) сестра, медсестра</t>
-  </si>
-  <si>
-    <t>(health) nurse, sister</t>
-  </si>
-  <si>
-    <t>здоровий, корисний</t>
-  </si>
-  <si>
-    <t>здоровый, полезный</t>
-  </si>
-  <si>
-    <t>healthy, sound (male)</t>
-  </si>
-  <si>
-    <t>zdravá</t>
-  </si>
-  <si>
-    <t>здорова, корисна</t>
-  </si>
-  <si>
-    <t>здоровая, полезная</t>
-  </si>
-  <si>
-    <t>healthy, sound (female)</t>
-  </si>
-  <si>
-    <t>zdravé</t>
-  </si>
-  <si>
-    <t>здорове, корисне</t>
-  </si>
-  <si>
-    <t>здоровое, полезное</t>
-  </si>
-  <si>
-    <t>healthy, sound (neut.)</t>
-  </si>
-  <si>
-    <t>зима, холодно</t>
-  </si>
-  <si>
-    <t>winter, cold</t>
-  </si>
-  <si>
     <t>зламаний</t>
   </si>
   <si>
-    <t>сломанный, переломленный</t>
-  </si>
-  <si>
     <t>broken (male)</t>
   </si>
   <si>
-    <t>zlomená</t>
-  </si>
-  <si>
     <t>зламана</t>
   </si>
   <si>
-    <t>сломанная, переломленная</t>
-  </si>
-  <si>
     <t>broken (female)</t>
   </si>
   <si>
-    <t>zlomené</t>
-  </si>
-  <si>
     <t>зламане</t>
   </si>
   <si>
-    <t>сломанное, переломленное</t>
-  </si>
-  <si>
-    <t>broken (neut.)</t>
-  </si>
-  <si>
     <t>поранений, травмований</t>
   </si>
   <si>
@@ -1971,9 +498,6 @@
     <t>injured, wounded (male)</t>
   </si>
   <si>
-    <t>zraněná</t>
-  </si>
-  <si>
     <t>поранена, травмована</t>
   </si>
   <si>
@@ -1983,40 +507,1462 @@
     <t>injured, wounded (female)</t>
   </si>
   <si>
-    <t>zraněné</t>
-  </si>
-  <si>
     <t>поранене, травмоване</t>
   </si>
   <si>
     <t>раненое, травмированное</t>
   </si>
   <si>
-    <t>injured, wounded (neut.)</t>
-  </si>
-  <si>
-    <t>zůstávat</t>
-  </si>
-  <si>
-    <t>залишатися (недок.)</t>
-  </si>
-  <si>
-    <t>оставаться (недок.)</t>
-  </si>
-  <si>
-    <t>to stay, to remain (impf.)</t>
-  </si>
-  <si>
-    <t>zůstat</t>
-  </si>
-  <si>
-    <t>залишитися (док.)</t>
-  </si>
-  <si>
-    <t>остаться (док.)</t>
-  </si>
-  <si>
-    <t>to stay, to remain (pf.)</t>
+    <t>(Ž) alergie na</t>
+  </si>
+  <si>
+    <t>běžet (pf/unidir)</t>
+  </si>
+  <si>
+    <t>бігти (односпрямовано)</t>
+  </si>
+  <si>
+    <t>бежать (однонаправленно)</t>
+  </si>
+  <si>
+    <t>to run (unidirectional)</t>
+  </si>
+  <si>
+    <t>běhat (impf/multidir)</t>
+  </si>
+  <si>
+    <t>бігати (багатоспрямовано)</t>
+  </si>
+  <si>
+    <t>бегать (многонаправленно)</t>
+  </si>
+  <si>
+    <t>to run (multidirectional)</t>
+  </si>
+  <si>
+    <t>blahopřát k (impf)</t>
+  </si>
+  <si>
+    <t>вітати з</t>
+  </si>
+  <si>
+    <t>поздравлять с</t>
+  </si>
+  <si>
+    <t>to congratulate on (imperfective)</t>
+  </si>
+  <si>
+    <t>poblahopřát k (pf)</t>
+  </si>
+  <si>
+    <t>привітати з, повіншувати з</t>
+  </si>
+  <si>
+    <t>поздравить с</t>
+  </si>
+  <si>
+    <t>to congratulate on (perfective)</t>
+  </si>
+  <si>
+    <t>боліти</t>
+  </si>
+  <si>
+    <t>болеть</t>
+  </si>
+  <si>
+    <t>(Pl) brýle</t>
+  </si>
+  <si>
+    <t>glasses, eyeglasses</t>
+  </si>
+  <si>
+    <t>Швидко одужуй., Одужуй.</t>
+  </si>
+  <si>
+    <t>Быстро выздоравливай., Выздоравливай.</t>
+  </si>
+  <si>
+    <t>Швидко одужуйте., Одужуйте.</t>
+  </si>
+  <si>
+    <t>Быстро выздоравливайте., Выздоравливайте.</t>
+  </si>
+  <si>
+    <t>Get well soon. (formal)</t>
+  </si>
+  <si>
+    <t>(S) břicho</t>
+  </si>
+  <si>
+    <t>живіт</t>
+  </si>
+  <si>
+    <t>stomach, belly, abdomen</t>
+  </si>
+  <si>
+    <t>бути на черзі, (бути) наступним</t>
+  </si>
+  <si>
+    <t>быть на очереди, быть следующим</t>
+  </si>
+  <si>
+    <t>to be (one's) turn</t>
+  </si>
+  <si>
+    <t>to feel</t>
+  </si>
+  <si>
+    <t>more often</t>
+  </si>
+  <si>
+    <t>(Ž) čekárna</t>
+  </si>
+  <si>
+    <t>приймальня, чекальня, зал очікування</t>
+  </si>
+  <si>
+    <t>приёмная, зал ожидания</t>
+  </si>
+  <si>
+    <t>dál / dále</t>
+  </si>
+  <si>
+    <t>далі</t>
+  </si>
+  <si>
+    <t>дальше, далее</t>
+  </si>
+  <si>
+    <t>further, next</t>
+  </si>
+  <si>
+    <t>щодня</t>
+  </si>
+  <si>
+    <t>ежедневно, в день</t>
+  </si>
+  <si>
+    <t>daily, per day</t>
+  </si>
+  <si>
+    <t>dřív / dříve</t>
+  </si>
+  <si>
+    <t>раніше</t>
+  </si>
+  <si>
+    <t>раньше, прежде</t>
+  </si>
+  <si>
+    <t>earlier, before</t>
+  </si>
+  <si>
+    <t>гарно, мило</t>
+  </si>
+  <si>
+    <t>красиво, мило, хорошо</t>
+  </si>
+  <si>
+    <t>(Ž) hlava</t>
+  </si>
+  <si>
+    <t>1. пасувати, личити (про одяг) 2. підходити, бути доречним (про час)</t>
+  </si>
+  <si>
+    <t>1. подходить, быть к лицу 2. подходить, быть уместным</t>
+  </si>
+  <si>
+    <t>1. to suit, to fit 2. to be suitable, to be convenient</t>
+  </si>
+  <si>
+    <t>(Ž) horečka</t>
+  </si>
+  <si>
+    <t>гарячка, висока температура, жар</t>
+  </si>
+  <si>
+    <t>горячка, высокая температура, жар</t>
+  </si>
+  <si>
+    <t>спекотно, жарко (погода); гаряче</t>
+  </si>
+  <si>
+    <t>жарко (погода); горячо</t>
+  </si>
+  <si>
+    <t>hot (weather); hot (feeling)</t>
+  </si>
+  <si>
+    <t>гірший, гірше</t>
+  </si>
+  <si>
+    <t>хуже, худший</t>
+  </si>
+  <si>
+    <t>worse (adj/adv)</t>
+  </si>
+  <si>
+    <t>(M) hrozný</t>
+  </si>
+  <si>
+    <t>жахливий, страшний</t>
+  </si>
+  <si>
+    <t>ужасный, страшный</t>
+  </si>
+  <si>
+    <t>terrible, awful, horrible (male)</t>
+  </si>
+  <si>
+    <t>(Ž) hrozná</t>
+  </si>
+  <si>
+    <t>жахлива, страшна</t>
+  </si>
+  <si>
+    <t>ужасная, страшная</t>
+  </si>
+  <si>
+    <t>terrible, awful, horrible (female)</t>
+  </si>
+  <si>
+    <t>(S) hrozné</t>
+  </si>
+  <si>
+    <t>жахливе, страшне</t>
+  </si>
+  <si>
+    <t>ужасное, страшное</t>
+  </si>
+  <si>
+    <t>terrible, awful, horrible (neuter)</t>
+  </si>
+  <si>
+    <t>hůř / hůře</t>
+  </si>
+  <si>
+    <t>worse (adverb)</t>
+  </si>
+  <si>
+    <t>(Ž) chirurgie</t>
+  </si>
+  <si>
+    <t>surgery (department)</t>
+  </si>
+  <si>
+    <t>(Ž) chřipka</t>
+  </si>
+  <si>
+    <t>1. бракувати, не вистачати 2. сумувати (за кимось)</t>
+  </si>
+  <si>
+    <t>1. не хватать, отсутствовать 2. скучать (по)</t>
+  </si>
+  <si>
+    <t>1. to be missing, to lack 2. to miss (someone)</t>
+  </si>
+  <si>
+    <t>(Ž) injekce</t>
+  </si>
+  <si>
+    <t>injection, shot</t>
+  </si>
+  <si>
+    <t>(S) jaro</t>
+  </si>
+  <si>
+    <t>(Ž) kartička pojišťovny</t>
+  </si>
+  <si>
+    <t>картка страхування, страховий поліс</t>
+  </si>
+  <si>
+    <t>карточка страховой, страховой полис</t>
+  </si>
+  <si>
+    <t>insurance card</t>
+  </si>
+  <si>
+    <t>(M) kašel</t>
+  </si>
+  <si>
+    <t>(Ž) kontrola</t>
+  </si>
+  <si>
+    <t>огляд (у лікаря), контроль</t>
+  </si>
+  <si>
+    <t>осмотр (у врача), контроль</t>
+  </si>
+  <si>
+    <t>check-up, inspection, control</t>
+  </si>
+  <si>
+    <t>(M) krk</t>
+  </si>
+  <si>
+    <t>шия; горло</t>
+  </si>
+  <si>
+    <t>шея; горло</t>
+  </si>
+  <si>
+    <t>neck; throat</t>
+  </si>
+  <si>
+    <t>(M) lék</t>
+  </si>
+  <si>
+    <t>ліки (одн.), препарат</t>
+  </si>
+  <si>
+    <t>лекарство, препарат</t>
+  </si>
+  <si>
+    <t>(M) lékař</t>
+  </si>
+  <si>
+    <t>(Ž) lékařka</t>
+  </si>
+  <si>
+    <t>врач (женщина)</t>
+  </si>
+  <si>
+    <t>lépe / líp</t>
+  </si>
+  <si>
+    <t>better (adverb)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) lepší</t>
+  </si>
+  <si>
+    <t>лучший, лучше</t>
+  </si>
+  <si>
+    <t>better (adjective)</t>
+  </si>
+  <si>
+    <t>бути … років (про вік)</t>
+  </si>
+  <si>
+    <t>быть … лет (о возрасте)</t>
+  </si>
+  <si>
+    <t>to be ... years old</t>
+  </si>
+  <si>
+    <t>letět (pf/unidir)</t>
+  </si>
+  <si>
+    <t>летіти (односпрямовано)</t>
+  </si>
+  <si>
+    <t>лететь (однонаправленно)</t>
+  </si>
+  <si>
+    <t>to fly (unidirectional)</t>
+  </si>
+  <si>
+    <t>létat (impf/multidir)</t>
+  </si>
+  <si>
+    <t>літати (багатоспрямовано)</t>
+  </si>
+  <si>
+    <t>летать (многонаправленно)</t>
+  </si>
+  <si>
+    <t>to fly (multidirectional)</t>
+  </si>
+  <si>
+    <t>(S) léto</t>
+  </si>
+  <si>
+    <t>to like, to be pleasing to</t>
+  </si>
+  <si>
+    <t>líp / lépe</t>
+  </si>
+  <si>
+    <t>méně / míň</t>
+  </si>
+  <si>
+    <t>меньше, менее</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) menší</t>
+  </si>
+  <si>
+    <t>менший, менше</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>míň / méně</t>
+  </si>
+  <si>
+    <t>(M) nebezpečný</t>
+  </si>
+  <si>
+    <t>dangerous (male)</t>
+  </si>
+  <si>
+    <t>(Ž) nebezpečná</t>
+  </si>
+  <si>
+    <t>dangerous (female)</t>
+  </si>
+  <si>
+    <t>(S) nebezpečné</t>
+  </si>
+  <si>
+    <t>dangerous (neuter)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) nejhorší</t>
+  </si>
+  <si>
+    <t>найгірший, найгірше</t>
+  </si>
+  <si>
+    <t>худший, хуже всего, самый плохой</t>
+  </si>
+  <si>
+    <t>(the) worst (adj/adv)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) nejlepší</t>
+  </si>
+  <si>
+    <t>найкращий, найкраще</t>
+  </si>
+  <si>
+    <t>лучший, лучше всего, самый хороший</t>
+  </si>
+  <si>
+    <t>(the) best (adj/adv)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) nejmenší</t>
+  </si>
+  <si>
+    <t>(the) smallest</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) největší</t>
+  </si>
+  <si>
+    <t>(the) biggest, largest</t>
+  </si>
+  <si>
+    <t>(Ž) nemoc</t>
+  </si>
+  <si>
+    <t>illness, disease, sickness</t>
+  </si>
+  <si>
+    <t>(M) nemocný</t>
+  </si>
+  <si>
+    <t>(Ž) nemocná</t>
+  </si>
+  <si>
+    <t>(S) nemocné</t>
+  </si>
+  <si>
+    <t>sick, ill (neuter)</t>
+  </si>
+  <si>
+    <t>nést (pf/unidir)</t>
+  </si>
+  <si>
+    <t>нести (односпрямовано)</t>
+  </si>
+  <si>
+    <t>нести (однонаправленно)</t>
+  </si>
+  <si>
+    <t>to carry (unidirectional)</t>
+  </si>
+  <si>
+    <t>nosit (impf/multidir)</t>
+  </si>
+  <si>
+    <t>носити (багатоспрямовано)</t>
+  </si>
+  <si>
+    <t>носить (многонаправленно)</t>
+  </si>
+  <si>
+    <t>to carry, to wear (multidirectional)</t>
+  </si>
+  <si>
+    <t>ніж (порівняння)</t>
+  </si>
+  <si>
+    <t>чем, нежели (сравнение)</t>
+  </si>
+  <si>
+    <t>than (comparison)</t>
+  </si>
+  <si>
+    <t>(Ž) noha</t>
+  </si>
+  <si>
+    <t>нога (вся)</t>
+  </si>
+  <si>
+    <t>(S) roční období</t>
+  </si>
+  <si>
+    <t>пора року, сезон</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>записатися (на прийом)</t>
+  </si>
+  <si>
+    <t>записаться (на приём)</t>
+  </si>
+  <si>
+    <t>to make an appointment</t>
+  </si>
+  <si>
+    <t>(S) očkování</t>
+  </si>
+  <si>
+    <t>щеплення</t>
+  </si>
+  <si>
+    <t>vaccination</t>
+  </si>
+  <si>
+    <t>(M) oční lékař</t>
+  </si>
+  <si>
+    <t>(Ž) oční lékařka</t>
+  </si>
+  <si>
+    <t>окулист, глазной врач (женщина)</t>
+  </si>
+  <si>
+    <t>odcházet (impf)</t>
+  </si>
+  <si>
+    <t>відходити, йти геть</t>
+  </si>
+  <si>
+    <t>уходить</t>
+  </si>
+  <si>
+    <t>to leave, to depart (on foot) (imperfective)</t>
+  </si>
+  <si>
+    <t>odejít (pf)</t>
+  </si>
+  <si>
+    <t>піти геть</t>
+  </si>
+  <si>
+    <t>уйти</t>
+  </si>
+  <si>
+    <t>to leave, to depart (on foot) (perfective)</t>
+  </si>
+  <si>
+    <t>odjíždět (impf)</t>
+  </si>
+  <si>
+    <t>від'їжджати</t>
+  </si>
+  <si>
+    <t>уезжать</t>
+  </si>
+  <si>
+    <t>to depart (by vehicle) (imperfective)</t>
+  </si>
+  <si>
+    <t>odjet (pf)</t>
+  </si>
+  <si>
+    <t>від'їхати</t>
+  </si>
+  <si>
+    <t>уехать</t>
+  </si>
+  <si>
+    <t>to depart (by vehicle) (perfective)</t>
+  </si>
+  <si>
+    <t>odlétat (impf)</t>
+  </si>
+  <si>
+    <t>відлітати</t>
+  </si>
+  <si>
+    <t>улетать</t>
+  </si>
+  <si>
+    <t>to fly away, to depart (by air) (imperfective)</t>
+  </si>
+  <si>
+    <t>odletět (pf)</t>
+  </si>
+  <si>
+    <t>відлетіти</t>
+  </si>
+  <si>
+    <t>улететь</t>
+  </si>
+  <si>
+    <t>to fly away, to depart (by air) (perfective)</t>
+  </si>
+  <si>
+    <t>odnášet (impf)</t>
+  </si>
+  <si>
+    <t>відносити</t>
+  </si>
+  <si>
+    <t>уносить</t>
+  </si>
+  <si>
+    <t>to carry away (imperfective)</t>
+  </si>
+  <si>
+    <t>odnést (pf)</t>
+  </si>
+  <si>
+    <t>віднести</t>
+  </si>
+  <si>
+    <t>унести</t>
+  </si>
+  <si>
+    <t>to carry away (perfective)</t>
+  </si>
+  <si>
+    <t>(Ž) ordinace</t>
+  </si>
+  <si>
+    <t>кабінет лікаря</t>
+  </si>
+  <si>
+    <t>кабинет врача</t>
+  </si>
+  <si>
+    <t>doctor's office, surgery</t>
+  </si>
+  <si>
+    <t>(Pl) ordinační hodiny</t>
+  </si>
+  <si>
+    <t>години прийому</t>
+  </si>
+  <si>
+    <t>часы приёма</t>
+  </si>
+  <si>
+    <t>погана погода, бридко</t>
+  </si>
+  <si>
+    <t>пасмурно, мерзко (о погоде)</t>
+  </si>
+  <si>
+    <t>(it is) nasty, bad (weather)</t>
+  </si>
+  <si>
+    <t>(M) pacient</t>
+  </si>
+  <si>
+    <t>пацієнт</t>
+  </si>
+  <si>
+    <t>пациент</t>
+  </si>
+  <si>
+    <t>(Ž) pacientka</t>
+  </si>
+  <si>
+    <t>пацієнтка</t>
+  </si>
+  <si>
+    <t>пациентка</t>
+  </si>
+  <si>
+    <t>padat (impf)</t>
+  </si>
+  <si>
+    <t>падати</t>
+  </si>
+  <si>
+    <t>падать</t>
+  </si>
+  <si>
+    <t>to fall (imperfective)</t>
+  </si>
+  <si>
+    <t>spadnout (pf)</t>
+  </si>
+  <si>
+    <t>впасти</t>
+  </si>
+  <si>
+    <t>упасть</t>
+  </si>
+  <si>
+    <t>to fall (perfective)</t>
+  </si>
+  <si>
+    <t>full, a lot</t>
+  </si>
+  <si>
+    <t>(M) podzim</t>
+  </si>
+  <si>
+    <t>(Ž) pohotovost</t>
+  </si>
+  <si>
+    <t>невідкладна допомога, швидка</t>
+  </si>
+  <si>
+    <t>скорая помощь, неотложка</t>
+  </si>
+  <si>
+    <t>emergency (room/service)</t>
+  </si>
+  <si>
+    <t>(Ž) poliklinika</t>
+  </si>
+  <si>
+    <t>polyclinic</t>
+  </si>
+  <si>
+    <t>popřát (pf)</t>
+  </si>
+  <si>
+    <t>побажати</t>
+  </si>
+  <si>
+    <t>пожелать</t>
+  </si>
+  <si>
+    <t>to wish (perfective)</t>
+  </si>
+  <si>
+    <t>přát (impf)</t>
+  </si>
+  <si>
+    <t>бажати</t>
+  </si>
+  <si>
+    <t>желать</t>
+  </si>
+  <si>
+    <t>to wish (imperfective)</t>
+  </si>
+  <si>
+    <t>poradit (pf)</t>
+  </si>
+  <si>
+    <t>порадити</t>
+  </si>
+  <si>
+    <t>посоветовать</t>
+  </si>
+  <si>
+    <t>to advise (perfective)</t>
+  </si>
+  <si>
+    <t>radit (impf)</t>
+  </si>
+  <si>
+    <t>радити</t>
+  </si>
+  <si>
+    <t>советовать</t>
+  </si>
+  <si>
+    <t>to advise (imperfective)</t>
+  </si>
+  <si>
+    <t>(Pl) potíže</t>
+  </si>
+  <si>
+    <t>проблеми, труднощі, скарги (на здоров'я)</t>
+  </si>
+  <si>
+    <t>проблемы, трудности, жалобы (на здоровье)</t>
+  </si>
+  <si>
+    <t>trouble, problems, difficulties, complaints</t>
+  </si>
+  <si>
+    <t>používat (impf)</t>
+  </si>
+  <si>
+    <t>використовувати</t>
+  </si>
+  <si>
+    <t>использовать</t>
+  </si>
+  <si>
+    <t>to use (imperfective)</t>
+  </si>
+  <si>
+    <t>použít (pf)</t>
+  </si>
+  <si>
+    <t>використати</t>
+  </si>
+  <si>
+    <t>to use (perfective)</t>
+  </si>
+  <si>
+    <t>(M) prášek</t>
+  </si>
+  <si>
+    <t>таблетка, порошок</t>
+  </si>
+  <si>
+    <t>přicházet (impf)</t>
+  </si>
+  <si>
+    <t>приходити</t>
+  </si>
+  <si>
+    <t>приходить</t>
+  </si>
+  <si>
+    <t>to come, to arrive (on foot) (imperfective)</t>
+  </si>
+  <si>
+    <t>přijít (pf)</t>
+  </si>
+  <si>
+    <t>прийти</t>
+  </si>
+  <si>
+    <t>to come, to arrive (on foot) (perfective)</t>
+  </si>
+  <si>
+    <t>přijíždět (impf)</t>
+  </si>
+  <si>
+    <t>приїжджати</t>
+  </si>
+  <si>
+    <t>приезжать</t>
+  </si>
+  <si>
+    <t>to arrive (by vehicle) (imperfective)</t>
+  </si>
+  <si>
+    <t>přijet (pf)</t>
+  </si>
+  <si>
+    <t>приїхати</t>
+  </si>
+  <si>
+    <t>приехать</t>
+  </si>
+  <si>
+    <t>to arrive (by vehicle) (perfective)</t>
+  </si>
+  <si>
+    <t>přilétat (impf)</t>
+  </si>
+  <si>
+    <t>прилітати</t>
+  </si>
+  <si>
+    <t>прилетать</t>
+  </si>
+  <si>
+    <t>to arrive (by air) (imperfective)</t>
+  </si>
+  <si>
+    <t>přiletět (pf)</t>
+  </si>
+  <si>
+    <t>прилетіти</t>
+  </si>
+  <si>
+    <t>прилететь</t>
+  </si>
+  <si>
+    <t>to arrive (by air) (perfective)</t>
+  </si>
+  <si>
+    <t>přinášet (impf)</t>
+  </si>
+  <si>
+    <t>приносити</t>
+  </si>
+  <si>
+    <t>приносить</t>
+  </si>
+  <si>
+    <t>to bring (imperfective)</t>
+  </si>
+  <si>
+    <t>přinést (pf)</t>
+  </si>
+  <si>
+    <t>принести</t>
+  </si>
+  <si>
+    <t>to bring (perfective)</t>
+  </si>
+  <si>
+    <t>půjčovat (impf)</t>
+  </si>
+  <si>
+    <t>позичати (комусь), давати в борг</t>
+  </si>
+  <si>
+    <t>одалживать (кому-то), давать взаймы</t>
+  </si>
+  <si>
+    <t>to lend (imperfective)</t>
+  </si>
+  <si>
+    <t>půjčit (pf)</t>
+  </si>
+  <si>
+    <t>позичити (комусь)</t>
+  </si>
+  <si>
+    <t>одолжить (кому-то)</t>
+  </si>
+  <si>
+    <t>to lend (perfective)</t>
+  </si>
+  <si>
+    <t>půjčovat si (impf)</t>
+  </si>
+  <si>
+    <t>позичати (у когось), брати в борг</t>
+  </si>
+  <si>
+    <t>одалживать (у кого-то), брать взаймы</t>
+  </si>
+  <si>
+    <t>to borrow (imperfective)</t>
+  </si>
+  <si>
+    <t>půjčit si (pf)</t>
+  </si>
+  <si>
+    <t>позичити (у когось)</t>
+  </si>
+  <si>
+    <t>одолжить (у кого-то)</t>
+  </si>
+  <si>
+    <t>to borrow (perfective)</t>
+  </si>
+  <si>
+    <t>(Ž) pusa</t>
+  </si>
+  <si>
+    <t>рот; поцілунок</t>
+  </si>
+  <si>
+    <t>рот; поцелуй</t>
+  </si>
+  <si>
+    <t>mouth; kiss</t>
+  </si>
+  <si>
+    <t>raději / radši</t>
+  </si>
+  <si>
+    <t>краще, охочіше</t>
+  </si>
+  <si>
+    <t>(M) recept</t>
+  </si>
+  <si>
+    <t>рецепт (медичний або кулінарний)</t>
+  </si>
+  <si>
+    <t>рецепт (медицинский или кулинарный)</t>
+  </si>
+  <si>
+    <t>prescription, recipe</t>
+  </si>
+  <si>
+    <t>(Ž) ruka</t>
+  </si>
+  <si>
+    <t>рука (кисть)</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>(Pl) ruce</t>
+  </si>
+  <si>
+    <t>руки (кисті)</t>
+  </si>
+  <si>
+    <t>руки (кисти)</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>(Ž) rýma</t>
+  </si>
+  <si>
+    <t>нежить, насморк</t>
+  </si>
+  <si>
+    <t>cold (illness), rhinitis</t>
+  </si>
+  <si>
+    <t>(Ž) sanitka</t>
+  </si>
+  <si>
+    <t>швидка допомога (машина)</t>
+  </si>
+  <si>
+    <t>скорая помощь (машина)</t>
+  </si>
+  <si>
+    <t>(M) silný</t>
+  </si>
+  <si>
+    <t>сильний</t>
+  </si>
+  <si>
+    <t>сильный</t>
+  </si>
+  <si>
+    <t>strong (male)</t>
+  </si>
+  <si>
+    <t>(Ž) silná</t>
+  </si>
+  <si>
+    <t>сильна</t>
+  </si>
+  <si>
+    <t>сильная</t>
+  </si>
+  <si>
+    <t>strong (female)</t>
+  </si>
+  <si>
+    <t>(S) silné</t>
+  </si>
+  <si>
+    <t>сильне</t>
+  </si>
+  <si>
+    <t>сильное</t>
+  </si>
+  <si>
+    <t>strong (neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) situace</t>
+  </si>
+  <si>
+    <t>ситуація</t>
+  </si>
+  <si>
+    <t>ситуация</t>
+  </si>
+  <si>
+    <t>(M) slabý</t>
+  </si>
+  <si>
+    <t>слабкий</t>
+  </si>
+  <si>
+    <t>слабый</t>
+  </si>
+  <si>
+    <t>weak (male)</t>
+  </si>
+  <si>
+    <t>(Ž) slabá</t>
+  </si>
+  <si>
+    <t>слабка</t>
+  </si>
+  <si>
+    <t>слабая</t>
+  </si>
+  <si>
+    <t>weak (female)</t>
+  </si>
+  <si>
+    <t>(S) slabé</t>
+  </si>
+  <si>
+    <t>слабке</t>
+  </si>
+  <si>
+    <t>слабое</t>
+  </si>
+  <si>
+    <t>weak (neuter)</t>
+  </si>
+  <si>
+    <t>сумно, смутно</t>
+  </si>
+  <si>
+    <t>грустно</t>
+  </si>
+  <si>
+    <t>(it is) sad</t>
+  </si>
+  <si>
+    <t>(S) srdce</t>
+  </si>
+  <si>
+    <t>(M) stupeň (Celsia)</t>
+  </si>
+  <si>
+    <t>градус (Цельсія)</t>
+  </si>
+  <si>
+    <t>градус (Цельсия)</t>
+  </si>
+  <si>
+    <t>degree (Celsius)</t>
+  </si>
+  <si>
+    <t>(Ž) tableta</t>
+  </si>
+  <si>
+    <t>(Ž) těhotná</t>
+  </si>
+  <si>
+    <t>(S) tělo</t>
+  </si>
+  <si>
+    <t>тепло</t>
+  </si>
+  <si>
+    <t>(it is) warm</t>
+  </si>
+  <si>
+    <t>(Ž) teplota</t>
+  </si>
+  <si>
+    <t>(M) termín</t>
+  </si>
+  <si>
+    <t>термін, дата, час (прийому)</t>
+  </si>
+  <si>
+    <t>термин, срок, дата, время (приёма)</t>
+  </si>
+  <si>
+    <t>term, date, deadline, appointment</t>
+  </si>
+  <si>
+    <t>ukazovat (impf)</t>
+  </si>
+  <si>
+    <t>показувати</t>
+  </si>
+  <si>
+    <t>показывать</t>
+  </si>
+  <si>
+    <t>to show (imperfective)</t>
+  </si>
+  <si>
+    <t>ukázat (pf)</t>
+  </si>
+  <si>
+    <t>показати</t>
+  </si>
+  <si>
+    <t>показать</t>
+  </si>
+  <si>
+    <t>to show (perfective)</t>
+  </si>
+  <si>
+    <t>одужати, вилікуватися</t>
+  </si>
+  <si>
+    <t>выздороветь, вылечиться</t>
+  </si>
+  <si>
+    <t>to get well, to recover</t>
+  </si>
+  <si>
+    <t>заважати, бути проти</t>
+  </si>
+  <si>
+    <t>мешать, возражать</t>
+  </si>
+  <si>
+    <t>to mind, to bother</t>
+  </si>
+  <si>
+    <t>vést (pf/unidir)</t>
+  </si>
+  <si>
+    <t>вести (односпрямовано)</t>
+  </si>
+  <si>
+    <t>вести (однонаправленно)</t>
+  </si>
+  <si>
+    <t>to lead (unidirectional)</t>
+  </si>
+  <si>
+    <t>vodit (impf/multidir)</t>
+  </si>
+  <si>
+    <t>водити (багатоспрямовано)</t>
+  </si>
+  <si>
+    <t>водить (многонаправленно)</t>
+  </si>
+  <si>
+    <t>to lead (multidirectional)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) větší</t>
+  </si>
+  <si>
+    <t>більший, більше</t>
+  </si>
+  <si>
+    <t>больший, побольше, больше</t>
+  </si>
+  <si>
+    <t>vézt (pf/unidir)</t>
+  </si>
+  <si>
+    <t>везти (односпрямовано)</t>
+  </si>
+  <si>
+    <t>везти (однонаправленно)</t>
+  </si>
+  <si>
+    <t>to transport, to drive (unidirectional)</t>
+  </si>
+  <si>
+    <t>vozit (impf/multidir)</t>
+  </si>
+  <si>
+    <t>возити (багатоспрямовано)</t>
+  </si>
+  <si>
+    <t>возить (многонаправленно)</t>
+  </si>
+  <si>
+    <t>to transport (multidirectional)</t>
+  </si>
+  <si>
+    <t>více / víc</t>
+  </si>
+  <si>
+    <t>(M) vitamín</t>
+  </si>
+  <si>
+    <t>to transport (unidirectional)</t>
+  </si>
+  <si>
+    <t>volat (impf)</t>
+  </si>
+  <si>
+    <t>дзвонити, кликати</t>
+  </si>
+  <si>
+    <t>звонить, звать</t>
+  </si>
+  <si>
+    <t>to call, to phone (imperfective)</t>
+  </si>
+  <si>
+    <t>zavolat (pf)</t>
+  </si>
+  <si>
+    <t>подзвонити, покликати</t>
+  </si>
+  <si>
+    <t>позвонить, позвать</t>
+  </si>
+  <si>
+    <t>to call, to phone (perfective)</t>
+  </si>
+  <si>
+    <t>підходити, влаштовувати</t>
+  </si>
+  <si>
+    <t>подходить, устраивать</t>
+  </si>
+  <si>
+    <t>to suit, to be convenient</t>
+  </si>
+  <si>
+    <t>виглядати</t>
+  </si>
+  <si>
+    <t>to look (like), to appear</t>
+  </si>
+  <si>
+    <t>vysvětlovat (impf)</t>
+  </si>
+  <si>
+    <t>пояснювати</t>
+  </si>
+  <si>
+    <t>объяснять</t>
+  </si>
+  <si>
+    <t>to explain (imperfective)</t>
+  </si>
+  <si>
+    <t>vysvětlit (pf)</t>
+  </si>
+  <si>
+    <t>пояснити</t>
+  </si>
+  <si>
+    <t>объяснить</t>
+  </si>
+  <si>
+    <t>to explain (perfective)</t>
+  </si>
+  <si>
+    <t>(M/Ž/S) zdravotní</t>
+  </si>
+  <si>
+    <t>медичний, -а, -е</t>
+  </si>
+  <si>
+    <t>медицинский, -ая, -ое</t>
+  </si>
+  <si>
+    <t>health (adj), medical</t>
+  </si>
+  <si>
+    <t>(Ž) (zdravotní) sestra</t>
+  </si>
+  <si>
+    <t>медсестра</t>
+  </si>
+  <si>
+    <t>nurse</t>
+  </si>
+  <si>
+    <t>(M) zdravý</t>
+  </si>
+  <si>
+    <t>здоровий</t>
+  </si>
+  <si>
+    <t>здоровый</t>
+  </si>
+  <si>
+    <t>healthy (male)</t>
+  </si>
+  <si>
+    <t>(Ž) zdravá</t>
+  </si>
+  <si>
+    <t>здорова</t>
+  </si>
+  <si>
+    <t>здоровая</t>
+  </si>
+  <si>
+    <t>healthy (female)</t>
+  </si>
+  <si>
+    <t>(S) zdravé</t>
+  </si>
+  <si>
+    <t>здорове</t>
+  </si>
+  <si>
+    <t>здоровое</t>
+  </si>
+  <si>
+    <t>healthy (neuter)</t>
+  </si>
+  <si>
+    <t>(Ž) zima</t>
+  </si>
+  <si>
+    <t>зима; холод</t>
+  </si>
+  <si>
+    <t>winter; cold</t>
+  </si>
+  <si>
+    <t>(M) zlomený</t>
+  </si>
+  <si>
+    <t>сломанный</t>
+  </si>
+  <si>
+    <t>(Ž) zlomená</t>
+  </si>
+  <si>
+    <t>сломанная</t>
+  </si>
+  <si>
+    <t>(S) zlomené</t>
+  </si>
+  <si>
+    <t>сломанное</t>
+  </si>
+  <si>
+    <t>broken (neuter)</t>
+  </si>
+  <si>
+    <t>(M) zraněný</t>
+  </si>
+  <si>
+    <t>(Ž) zraněná</t>
+  </si>
+  <si>
+    <t>(S) zraněné</t>
+  </si>
+  <si>
+    <t>injured, wounded (neuter)</t>
+  </si>
+  <si>
+    <t>zůstávat (impf)</t>
+  </si>
+  <si>
+    <t>залишатися</t>
+  </si>
+  <si>
+    <t>оставаться</t>
+  </si>
+  <si>
+    <t>to stay, to remain (imperfective)</t>
+  </si>
+  <si>
+    <t>zůstat (pf)</t>
+  </si>
+  <si>
+    <t>залишитися</t>
+  </si>
+  <si>
+    <t>остаться</t>
+  </si>
+  <si>
+    <t>to stay, to remain (perfective)</t>
   </si>
 </sst>
 </file>
@@ -2414,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,2852 +2375,2780 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
+        <v>165</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>166</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>61</v>
+        <v>180</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>66</v>
+        <v>182</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>72</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>73</v>
+        <v>186</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>77</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>79</v>
+        <v>192</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>84</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>87</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>91</v>
+        <v>199</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>93</v>
+        <v>204</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>4</v>
+        <v>206</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>102</v>
+        <v>211</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>5</v>
+        <v>212</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>9</v>
+        <v>225</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>120</v>
+        <v>227</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>124</v>
+        <v>231</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>127</v>
+        <v>38</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>137</v>
+        <v>243</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>149</v>
+        <v>51</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>154</v>
+        <v>249</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>160</v>
+        <v>254</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>161</v>
+        <v>255</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>164</v>
+        <v>259</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>260</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>17</v>
+        <v>261</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>165</v>
+        <v>263</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>18</v>
+        <v>264</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>169</v>
+        <v>59</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>20</v>
+        <v>267</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>173</v>
+        <v>63</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>179</v>
+        <v>270</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>182</v>
+        <v>273</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>186</v>
+        <v>277</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>198</v>
+        <v>285</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>199</v>
+        <v>63</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>201</v>
+        <v>64</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>205</v>
+        <v>287</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>22</v>
+        <v>288</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>209</v>
+        <v>291</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>212</v>
+        <v>287</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>186</v>
+        <v>79</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>213</v>
+        <v>296</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>216</v>
+        <v>81</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>220</v>
+        <v>301</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>221</v>
+        <v>303</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>223</v>
+        <v>304</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>220</v>
+        <v>83</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>216</v>
+        <v>85</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>226</v>
+        <v>87</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>229</v>
+        <v>89</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>226</v>
+        <v>90</v>
       </c>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>232</v>
+        <v>92</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>226</v>
+        <v>93</v>
       </c>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>25</v>
+        <v>314</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>234</v>
+        <v>95</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>26</v>
+        <v>316</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>236</v>
+        <v>317</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>238</v>
+        <v>318</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>241</v>
+        <v>322</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>242</v>
+        <v>324</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>244</v>
+        <v>325</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>248</v>
+        <v>96</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>29</v>
+        <v>329</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>249</v>
+        <v>330</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>250</v>
+        <v>121</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>252</v>
+        <v>98</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>255</v>
+        <v>333</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>258</v>
+        <v>99</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>259</v>
+        <v>337</v>
       </c>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>265</v>
+        <v>103</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>30</v>
+        <v>341</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>270</v>
+        <v>343</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>31</v>
+        <v>345</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>272</v>
+        <v>347</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>348</v>
       </c>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>273</v>
+        <v>349</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>274</v>
+        <v>350</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>275</v>
+        <v>351</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>276</v>
+        <v>352</v>
       </c>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>32</v>
+        <v>357</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>281</v>
+        <v>358</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>284</v>
+        <v>361</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>285</v>
+        <v>362</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>289</v>
+        <v>366</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>286</v>
+        <v>367</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>290</v>
+        <v>368</v>
       </c>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>292</v>
+        <v>370</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>293</v>
+        <v>371</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>294</v>
+        <v>372</v>
       </c>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>295</v>
+        <v>373</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>296</v>
+        <v>374</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>297</v>
+        <v>375</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>301</v>
+        <v>379</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>306</v>
+        <v>382</v>
       </c>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>307</v>
+        <v>383</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>310</v>
+        <v>385</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>311</v>
+        <v>386</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>312</v>
+        <v>387</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>314</v>
+        <v>388</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>315</v>
+        <v>389</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>316</v>
+        <v>390</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>317</v>
+        <v>391</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>318</v>
+        <v>392</v>
       </c>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>319</v>
+        <v>393</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>321</v>
+        <v>395</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>322</v>
+        <v>396</v>
       </c>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>326</v>
+        <v>109</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>397</v>
       </c>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>327</v>
+        <v>176</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>328</v>
+        <v>177</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>329</v>
+        <v>178</v>
       </c>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>330</v>
+        <v>172</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>331</v>
+        <v>173</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>332</v>
+        <v>174</v>
       </c>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>334</v>
+        <v>110</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>335</v>
+        <v>111</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>336</v>
+        <v>112</v>
       </c>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>338</v>
+        <v>400</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>340</v>
+        <v>401</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>402</v>
       </c>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>342</v>
+        <v>113</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>343</v>
+        <v>114</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>348</v>
+        <v>407</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>408</v>
       </c>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>35</v>
+        <v>409</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>351</v>
+        <v>411</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>55</v>
+        <v>413</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>56</v>
+        <v>414</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>57</v>
+        <v>415</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>58</v>
+        <v>416</v>
       </c>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>51</v>
+        <v>417</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>52</v>
+        <v>418</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>53</v>
+        <v>419</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
       <c r="E98" s="4"/>
     </row>
-    <row r="99" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>36</v>
+        <v>421</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>352</v>
+        <v>422</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>354</v>
+        <v>423</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>424</v>
       </c>
       <c r="E99" s="4"/>
     </row>
-    <row r="100" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>356</v>
+        <v>426</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>357</v>
+        <v>427</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>358</v>
+        <v>428</v>
       </c>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>37</v>
+        <v>429</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>359</v>
+        <v>430</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>361</v>
+        <v>427</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>365</v>
+        <v>433</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>369</v>
+        <v>411</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>372</v>
+        <v>407</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>377</v>
+        <v>437</v>
       </c>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="E106" s="4"/>
     </row>
-    <row r="107" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>385</v>
+        <v>443</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>444</v>
       </c>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>389</v>
+        <v>447</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>38</v>
+        <v>449</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>366</v>
+        <v>453</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>367</v>
+        <v>454</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>369</v>
+        <v>455</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>456</v>
       </c>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>362</v>
+        <v>457</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>363</v>
+        <v>458</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>365</v>
+        <v>459</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>392</v>
+        <v>461</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>393</v>
+        <v>462</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>400</v>
+        <v>468</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>405</v>
+        <v>473</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>406</v>
+        <v>474</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>407</v>
+        <v>475</v>
       </c>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>408</v>
+        <v>476</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>409</v>
+        <v>477</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>412</v>
+        <v>480</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>413</v>
+        <v>481</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>415</v>
+        <v>482</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>483</v>
       </c>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>416</v>
+        <v>484</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="D118" s="6" t="s">
-        <v>419</v>
+        <v>119</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D119" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>423</v>
       </c>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>429</v>
+        <v>487</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>431</v>
+        <v>489</v>
       </c>
       <c r="E121" s="4"/>
     </row>
-    <row r="122" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>455</v>
+        <v>329</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>456</v>
+        <v>330</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>457</v>
+        <v>121</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>458</v>
+        <v>331</v>
       </c>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>432</v>
+        <v>493</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>468</v>
+        <v>122</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="E125" s="4"/>
     </row>
-    <row r="126" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>473</v>
+        <v>502</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>374</v>
+        <v>503</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>476</v>
+        <v>505</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>370</v>
+        <v>507</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>479</v>
+        <v>509</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="E128" s="4"/>
     </row>
     <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>482</v>
+        <v>513</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="E129" s="4"/>
     </row>
     <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>273</v>
+        <v>515</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>274</v>
+        <v>516</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>276</v>
+        <v>517</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>434</v>
+        <v>526</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>491</v>
+        <v>527</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>493</v>
+        <v>528</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>529</v>
       </c>
       <c r="E133" s="4"/>
     </row>
-    <row r="134" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>435</v>
+        <v>116</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>495</v>
+        <v>531</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>436</v>
+        <v>393</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>497</v>
+        <v>394</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>498</v>
+        <v>395</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>499</v>
+        <v>396</v>
       </c>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>500</v>
+        <v>389</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>501</v>
+        <v>390</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>502</v>
+        <v>391</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>499</v>
+        <v>392</v>
       </c>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>504</v>
+        <v>125</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>499</v>
+        <v>126</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>437</v>
+        <v>538</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>510</v>
+        <v>128</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>511</v>
+        <v>128</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>512</v>
+        <v>129</v>
       </c>
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>514</v>
+        <v>130</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>512</v>
+        <v>131</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>517</v>
+        <v>133</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>518</v>
+        <v>134</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>512</v>
+        <v>135</v>
       </c>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>438</v>
+        <v>117</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>521</v>
+        <v>541</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>542</v>
       </c>
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>345</v>
+        <v>543</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>522</v>
+        <v>136</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>523</v>
+        <v>136</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>348</v>
+        <v>137</v>
       </c>
       <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>341</v>
+        <v>544</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D144" s="6" t="s">
-        <v>344</v>
+        <v>546</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>547</v>
       </c>
       <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="D145" s="6" t="s">
-        <v>527</v>
+        <v>550</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>551</v>
       </c>
       <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>439</v>
+        <v>552</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>440</v>
+        <v>118</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>532</v>
+        <v>557</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>558</v>
       </c>
       <c r="E147" s="4"/>
     </row>
     <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>441</v>
+        <v>138</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>442</v>
+        <v>562</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>536</v>
+        <v>563</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>538</v>
+        <v>564</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>565</v>
       </c>
       <c r="E149" s="4"/>
     </row>
     <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>443</v>
+        <v>566</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>444</v>
+        <v>570</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>541</v>
+        <v>571</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>542</v>
+        <v>139</v>
       </c>
       <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>551</v>
+        <v>140</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>553</v>
+        <v>141</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>446</v>
+        <v>582</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>554</v>
+        <v>143</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>556</v>
+        <v>144</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="E155" s="4"/>
     </row>
-    <row r="156" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="E156" s="4"/>
     </row>
-    <row r="157" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="E158" s="4"/>
     </row>
     <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>447</v>
+        <v>573</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D159" s="6" t="s">
-        <v>571</v>
+        <v>575</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>583</v>
       </c>
       <c r="E159" s="4"/>
     </row>
-    <row r="160" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="E160" s="4"/>
     </row>
-    <row r="161" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>580</v>
+        <v>146</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>583</v>
+        <v>593</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>594</v>
       </c>
       <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>584</v>
+        <v>147</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>586</v>
+        <v>148</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="E163" s="4"/>
     </row>
     <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>448</v>
+        <v>597</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>590</v>
+        <v>599</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>600</v>
       </c>
       <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="E165" s="4"/>
     </row>
-    <row r="166" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="E166" s="4"/>
     </row>
-    <row r="167" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="E167" s="4"/>
     </row>
-    <row r="168" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="E168" s="4"/>
     </row>
-    <row r="169" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="D169" s="6" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="E169" s="4"/>
     </row>
-    <row r="170" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>597</v>
+        <v>614</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="E170" s="4"/>
     </row>
-    <row r="171" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>619</v>
       </c>
       <c r="E171" s="4"/>
     </row>
     <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>623</v>
       </c>
       <c r="E172" s="4"/>
     </row>
-    <row r="173" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>610</v>
+        <v>625</v>
+      </c>
+      <c r="D173" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="E173" s="4"/>
     </row>
     <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>612</v>
+        <v>149</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>614</v>
+        <v>628</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="E174" s="4"/>
     </row>
-    <row r="175" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>596</v>
+        <v>151</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>598</v>
+        <v>152</v>
       </c>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>592</v>
+        <v>153</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>449</v>
+        <v>634</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>615</v>
+        <v>154</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>616</v>
+        <v>155</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>617</v>
+        <v>156</v>
       </c>
       <c r="E177" s="4"/>
     </row>
     <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>450</v>
+        <v>635</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>618</v>
+        <v>157</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>619</v>
+        <v>158</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>620</v>
+        <v>159</v>
       </c>
       <c r="E178" s="4"/>
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>451</v>
+        <v>636</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>621</v>
+        <v>160</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>622</v>
+        <v>161</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="E179" s="4"/>
     </row>
     <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="D182" s="6" t="s">
-        <v>633</v>
-      </c>
+      <c r="A182" s="6"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="6"/>
       <c r="E182" s="4"/>
     </row>
     <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>636</v>
-      </c>
+      <c r="A183" s="6"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="6"/>
       <c r="E183" s="4"/>
     </row>
     <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D184" s="6" t="s">
-        <v>640</v>
-      </c>
+      <c r="A184" s="6"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
       <c r="E184" s="4"/>
     </row>
     <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>644</v>
-      </c>
+      <c r="A185" s="6"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="6"/>
       <c r="E185" s="4"/>
     </row>
     <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>647</v>
-      </c>
+      <c r="A186" s="6"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="7"/>
       <c r="E186" s="4"/>
     </row>
     <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>651</v>
-      </c>
+      <c r="A187" s="6"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="7"/>
       <c r="E187" s="4"/>
     </row>
     <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="B188" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>655</v>
-      </c>
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="7"/>
       <c r="E188" s="4"/>
     </row>
     <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>659</v>
-      </c>
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="7"/>
       <c r="E189" s="4"/>
     </row>
     <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>663</v>
-      </c>
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="7"/>
       <c r="E190" s="4"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
